--- a/export/wp_product.xlsx
+++ b/export/wp_product.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,303 +436,38 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>description</t>
+          <t>code</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>message</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>sku</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>images</t>
+          <t>data</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;p&gt;杯墊是絕佳的隔熱物料，配上彩色數碼打印，為生活添上一份色彩。無論家中、咖啡屋、朋友聚會都適合。讓彩色藝術溶入生活。&lt;/p&gt;
-&lt;p&gt;陶瓷杯墊以一種低溫陶瓷原料白雲士製造。經低溫燒製，表面蘊藏無數微小孔穴，具有極強的吸水性。&lt;/p&gt;
-&lt;p&gt;&lt;img class="alignnone size-full wp-image-3321" src="https://www.thecsdesign.com/wp-content/uploads/2021/02/info-square-zh-scaled.jpg" alt="花磚圖案方形陶瓷吸水杯墊info" width="1129" height="2560" /&gt;&lt;/p&gt;
-</t>
+          <t>rest_no_route</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>花磚圖案方形陶瓷吸水杯墊D款綠色</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>CS-FLT-04</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>[{'id': 3319, 'date_created': '2021-02-10T19:41:38', 'date_created_gmt': '2021-02-10T03:41:38', 'date_modified': '2021-02-10T19:42:36', 'date_modified_gmt': '2021-02-10T03:42:36', 'src': 'https://www.thecsdesign.com/wp-content/uploads/2021/02/f-square-4.jpg', 'name': 'f-square-4', 'alt': '花磚圖案方形陶瓷吸水杯墊'}, {'id': 3325, 'date_created': '2021-02-10T19:42:05', 'date_created_gmt': '2021-02-10T03:42:05', 'date_modified': '2021-02-10T19:42:22', 'date_modified_gmt': '2021-02-10T03:42:22', 'src': 'https://www.thecsdesign.com/wp-content/uploads/2021/02/f-squareD.jpg', 'name': 'f-squareD', 'alt': '花磚圖案方形陶瓷吸水杯墊'}, {'id': 3316, 'date_created': '2021-02-10T19:41:30', 'date_created_gmt': '2021-02-10T03:41:30', 'date_modified': '2021-02-10T19:42:42', 'date_modified_gmt': '2021-02-10T03:42:42', 'src': 'https://www.thecsdesign.com/wp-content/uploads/2021/02/f-square-1.jpg', 'name': 'f-square-1', 'alt': '花磚圖案方形陶瓷吸水杯墊'}, {'id': 3315, 'date_created': '2021-02-10T19:41:27', 'date_created_gmt': '2021-02-10T03:41:27', 'date_modified': '2021-02-10T19:42:44', 'date_modified_gmt': '2021-02-10T03:42:44', 'src': 'https://www.thecsdesign.com/wp-content/uploads/2021/02/f-square-6.jpg', 'name': 'f-square-6', 'alt': '花磚圖案方形陶瓷吸水杯墊'}]</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">&lt;p&gt;杯墊是絕佳的隔熱物料，配上彩色數碼打印，為生活添上一份色彩。無論家中、咖啡屋、朋友聚會都適合。讓彩色藝術溶入生活。&lt;/p&gt;
-&lt;p&gt;陶瓷杯墊以一種低溫陶瓷原料白雲士製造。經低溫燒製，表面蘊藏無數微小孔穴，具有極強的吸水性。&lt;/p&gt;
-&lt;p&gt;&lt;img class="alignnone size-full wp-image-3321" src="https://www.thecsdesign.com/wp-content/uploads/2021/02/info-square-zh-scaled.jpg" alt="花磚圖案方形陶瓷吸水杯墊info" width="1129" height="2560" /&gt;&lt;/p&gt;
-</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>花磚圖案方形陶瓷吸水杯墊C款粉紅色</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>CS-FLT-03</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>[{'id': 3318, 'date_created': '2021-02-10T19:41:35', 'date_created_gmt': '2021-02-10T03:41:35', 'date_modified': '2021-02-10T19:42:38', 'date_modified_gmt': '2021-02-10T03:42:38', 'src': 'https://www.thecsdesign.com/wp-content/uploads/2021/02/f-square-3.jpg', 'name': 'f-square-3', 'alt': '花磚圖案方形陶瓷吸水杯墊'}, {'id': 3324, 'date_created': '2021-02-10T19:42:01', 'date_created_gmt': '2021-02-10T03:42:01', 'date_modified': '2021-02-10T19:42:24', 'date_modified_gmt': '2021-02-10T03:42:24', 'src': 'https://www.thecsdesign.com/wp-content/uploads/2021/02/f-squareC.jpg', 'name': 'f-squareC', 'alt': '花磚圖案方形陶瓷吸水杯墊'}, {'id': 3316, 'date_created': '2021-02-10T19:41:30', 'date_created_gmt': '2021-02-10T03:41:30', 'date_modified': '2021-02-10T19:42:42', 'date_modified_gmt': '2021-02-10T03:42:42', 'src': 'https://www.thecsdesign.com/wp-content/uploads/2021/02/f-square-1.jpg', 'name': 'f-square-1', 'alt': '花磚圖案方形陶瓷吸水杯墊'}, {'id': 3315, 'date_created': '2021-02-10T19:41:27', 'date_created_gmt': '2021-02-10T03:41:27', 'date_modified': '2021-02-10T19:42:44', 'date_modified_gmt': '2021-02-10T03:42:44', 'src': 'https://www.thecsdesign.com/wp-content/uploads/2021/02/f-square-6.jpg', 'name': 'f-square-6', 'alt': '花磚圖案方形陶瓷吸水杯墊'}]</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">&lt;p&gt;杯墊是絕佳的隔熱物料，配上彩色數碼打印，為生活添上一份色彩。無論家中、咖啡屋、朋友聚會都適合。讓彩色藝術溶入生活。&lt;/p&gt;
-&lt;p&gt;陶瓷杯墊以一種低溫陶瓷原料白雲士製造。經低溫燒製，表面蘊藏無數微小孔穴，具有極強的吸水性。&lt;/p&gt;
-&lt;p&gt;&lt;img class="alignnone size-full wp-image-3321" src="https://www.thecsdesign.com/wp-content/uploads/2021/02/info-square-zh-scaled.jpg" alt="花磚圖案方形陶瓷吸水杯墊info" width="1129" height="2560" /&gt;&lt;/p&gt;
-</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>花磚圖案方形陶瓷吸水杯墊B款黃色</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>CS-FLT-02</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>[{'id': 3317, 'date_created': '2021-02-10T19:41:32', 'date_created_gmt': '2021-02-10T03:41:32', 'date_modified': '2021-02-10T19:42:40', 'date_modified_gmt': '2021-02-10T03:42:40', 'src': 'https://www.thecsdesign.com/wp-content/uploads/2021/02/f-square-2.jpg', 'name': 'f-square-2', 'alt': '花磚圖案方形陶瓷吸水杯墊'}, {'id': 3316, 'date_created': '2021-02-10T19:41:30', 'date_created_gmt': '2021-02-10T03:41:30', 'date_modified': '2021-02-10T19:42:42', 'date_modified_gmt': '2021-02-10T03:42:42', 'src': 'https://www.thecsdesign.com/wp-content/uploads/2021/02/f-square-1.jpg', 'name': 'f-square-1', 'alt': '花磚圖案方形陶瓷吸水杯墊'}, {'id': 3315, 'date_created': '2021-02-10T19:41:27', 'date_created_gmt': '2021-02-10T03:41:27', 'date_modified': '2021-02-10T19:42:44', 'date_modified_gmt': '2021-02-10T03:42:44', 'src': 'https://www.thecsdesign.com/wp-content/uploads/2021/02/f-square-6.jpg', 'name': 'f-square-6', 'alt': '花磚圖案方形陶瓷吸水杯墊'}, {'id': 3323, 'date_created': '2021-02-10T19:41:56', 'date_created_gmt': '2021-02-10T03:41:56', 'date_modified': '2021-02-10T19:42:26', 'date_modified_gmt': '2021-02-10T03:42:26', 'src': 'https://www.thecsdesign.com/wp-content/uploads/2021/02/f-squareB.jpg', 'name': 'f-squareB', 'alt': '花磚圖案方形陶瓷吸水杯墊'}]</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">&lt;p&gt;杯墊是絕佳的隔熱物料，配上彩色數碼打印，為生活添上一份色彩。無論家中、咖啡屋、朋友聚會都適合。讓彩色藝術溶入生活。&lt;/p&gt;
-&lt;p&gt;陶瓷杯墊以一種低溫陶瓷原料白雲士製造。經低溫燒製，表面蘊藏無數微小孔穴，具有極強的吸水性。&lt;/p&gt;
-&lt;p&gt;&lt;img class="alignnone size-full wp-image-3321" src="https://www.thecsdesign.com/wp-content/uploads/2021/02/info-square-zh-scaled.jpg" alt="花磚圖案方形陶瓷吸水杯墊info" width="1129" height="2560" /&gt;&lt;/p&gt;
-</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>花磚圖案方形陶瓷吸水杯墊A款藍色</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>CS-FLT-01</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>[{'id': 3320, 'date_created': '2021-02-10T19:41:41', 'date_created_gmt': '2021-02-10T03:41:41', 'date_modified': '2021-02-10T19:42:35', 'date_modified_gmt': '2021-02-10T03:42:35', 'src': 'https://www.thecsdesign.com/wp-content/uploads/2021/02/f-square-5.jpg', 'name': 'f-square-5', 'alt': '花磚圖案方形陶瓷吸水杯墊'}, {'id': 3322, 'date_created': '2021-02-10T19:41:54', 'date_created_gmt': '2021-02-10T03:41:54', 'date_modified': '2021-02-10T19:42:28', 'date_modified_gmt': '2021-02-10T03:42:28', 'src': 'https://www.thecsdesign.com/wp-content/uploads/2021/02/f-squareA.jpg', 'name': 'f-squareA', 'alt': '花磚圖案方形陶瓷吸水杯墊'}, {'id': 3316, 'date_created': '2021-02-10T19:41:30', 'date_created_gmt': '2021-02-10T03:41:30', 'date_modified': '2021-02-10T19:42:42', 'date_modified_gmt': '2021-02-10T03:42:42', 'src': 'https://www.thecsdesign.com/wp-content/uploads/2021/02/f-square-1.jpg', 'name': 'f-square-1', 'alt': '花磚圖案方形陶瓷吸水杯墊'}, {'id': 3315, 'date_created': '2021-02-10T19:41:27', 'date_created_gmt': '2021-02-10T03:41:27', 'date_modified': '2021-02-10T19:42:44', 'date_modified_gmt': '2021-02-10T03:42:44', 'src': 'https://www.thecsdesign.com/wp-content/uploads/2021/02/f-square-6.jpg', 'name': 'f-square-6', 'alt': '花磚圖案方形陶瓷吸水杯墊'}]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">&lt;p&gt;六角形的結構是一種大自然法則及很高的穩定性，凡是圓筒形的物體，當受到壓力時它的截面都是六角形。陶瓷杯墊是絕佳的隔熱物料，配上彩色數碼打印，為生活添上一份色彩。無論家中、咖啡屋、朋友聚會都適合。讓彩色藝術溶入生活。&lt;/p&gt;
-&lt;p&gt;陶瓷杯墊以一種低溫陶瓷原料白雲士製造。經低溫燒製，表面蘊藏無數微小孔穴，具有極強的吸水性。&lt;/p&gt;
-&lt;p&gt;&lt;img class="alignnone size-full wp-image-3300" src="https://www.thecsdesign.com/wp-content/uploads/2021/02/info-geometric-zh-scaled.jpg" alt="六角形幾何圖案陶瓷隔熱吸水杯墊info" width="1097" height="2560" /&gt;&lt;/p&gt;
-</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>六角形幾何圖案陶瓷隔熱吸水杯墊D款</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>CS-GM-04</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>[{'id': 3305, 'date_created': '2021-02-10T19:23:52', 'date_created_gmt': '2021-02-10T03:23:52', 'date_modified': '2021-02-10T19:24:35', 'date_modified_gmt': '2021-02-10T03:24:35', 'src': 'https://www.thecsdesign.com/wp-content/uploads/2021/02/geometric-4.jpg', 'name': 'geometric-4', 'alt': '六角形幾何圖案陶瓷隔熱吸水杯墊'}, {'id': 3307, 'date_created': '2021-02-10T19:23:59', 'date_created_gmt': '2021-02-10T03:23:59', 'date_modified': '2021-02-10T19:24:28', 'date_modified_gmt': '2021-02-10T03:24:28', 'src': 'https://www.thecsdesign.com/wp-content/uploads/2021/02/geometric-D.jpg', 'name': 'geometric-D', 'alt': '六角形幾何圖案陶瓷隔熱吸水杯墊'}, {'id': 3302, 'date_created': '2021-02-10T19:23:42', 'date_created_gmt': '2021-02-10T03:23:42', 'date_modified': '2021-02-10T19:24:30', 'date_modified_gmt': '2021-02-10T03:24:30', 'src': 'https://www.thecsdesign.com/wp-content/uploads/2021/02/geometric-1.jpg', 'name': 'geometric-1', 'alt': '六角形幾何圖案陶瓷隔熱吸水杯墊'}, {'id': 3301, 'date_created': '2021-02-10T19:23:40', 'date_created_gmt': '2021-02-10T03:23:40', 'date_modified': '2021-02-10T19:24:32', 'date_modified_gmt': '2021-02-10T03:24:32', 'src': 'https://www.thecsdesign.com/wp-content/uploads/2021/02/geometric-6.jpg', 'name': 'geometric-6', 'alt': '六角形幾何圖案陶瓷隔熱吸水杯墊'}]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">&lt;p&gt;六角形的結構是一種大自然法則及很高的穩定性，凡是圓筒形的物體，當受到壓力時它的截面都是六角形。陶瓷杯墊是絕佳的隔熱物料，配上彩色數碼打印，為生活添上一份色彩。無論家中、咖啡屋、朋友聚會都適合。讓彩色藝術溶入生活。&lt;/p&gt;
-&lt;p&gt;陶瓷杯墊以一種低溫陶瓷原料白雲士製造。經低溫燒製，表面蘊藏無數微小孔穴，具有極強的吸水性。&lt;/p&gt;
-&lt;p&gt;&lt;img class="alignnone size-full wp-image-3300" src="https://www.thecsdesign.com/wp-content/uploads/2021/02/info-geometric-zh-scaled.jpg" alt="六角形幾何圖案陶瓷隔熱吸水杯墊info" width="1097" height="2560" /&gt;&lt;/p&gt;
-</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>六角形幾何圖案陶瓷隔熱吸水杯墊C款</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>CS-GM-03</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>[{'id': 3306, 'date_created': '2021-02-10T19:23:56', 'date_created_gmt': '2021-02-10T03:23:56', 'date_modified': '2021-02-10T19:24:33', 'date_modified_gmt': '2021-02-10T03:24:33', 'src': 'https://www.thecsdesign.com/wp-content/uploads/2021/02/geometric-5.jpg', 'name': 'geometric-5', 'alt': '六角形幾何圖案陶瓷隔熱吸水杯墊'}, {'id': 3310, 'date_created': '2021-02-10T19:24:07', 'date_created_gmt': '2021-02-10T03:24:07', 'date_modified': '2021-02-10T19:24:19', 'date_modified_gmt': '2021-02-10T03:24:19', 'src': 'https://www.thecsdesign.com/wp-content/uploads/2021/02/geometric-C.jpg', 'name': 'geometric-C', 'alt': '六角形幾何圖案陶瓷隔熱吸水杯墊'}, {'id': 3302, 'date_created': '2021-02-10T19:23:42', 'date_created_gmt': '2021-02-10T03:23:42', 'date_modified': '2021-02-10T19:24:30', 'date_modified_gmt': '2021-02-10T03:24:30', 'src': 'https://www.thecsdesign.com/wp-content/uploads/2021/02/geometric-1.jpg', 'name': 'geometric-1', 'alt': '六角形幾何圖案陶瓷隔熱吸水杯墊'}, {'id': 3301, 'date_created': '2021-02-10T19:23:40', 'date_created_gmt': '2021-02-10T03:23:40', 'date_modified': '2021-02-10T19:24:32', 'date_modified_gmt': '2021-02-10T03:24:32', 'src': 'https://www.thecsdesign.com/wp-content/uploads/2021/02/geometric-6.jpg', 'name': 'geometric-6', 'alt': '六角形幾何圖案陶瓷隔熱吸水杯墊'}]</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">&lt;p&gt;六角形的結構是一種大自然法則及很高的穩定性，凡是圓筒形的物體，當受到壓力時它的截面都是六角形。陶瓷杯墊是絕佳的隔熱物料，配上彩色數碼打印，為生活添上一份色彩。無論家中、咖啡屋、朋友聚會都適合。讓彩色藝術溶入生活。&lt;/p&gt;
-&lt;p&gt;陶瓷杯墊以一種低溫陶瓷原料白雲士製造。經低溫燒製，表面蘊藏無數微小孔穴，具有極強的吸水性。&lt;/p&gt;
-&lt;p&gt;&lt;img class="alignnone size-full wp-image-3300" src="https://www.thecsdesign.com/wp-content/uploads/2021/02/info-geometric-zh-scaled.jpg" alt="六角形幾何圖案陶瓷隔熱吸水杯墊info" width="1097" height="2560" /&gt;&lt;/p&gt;
-</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>六角形幾何圖案陶瓷隔熱吸水杯墊B款</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>CS-GM-02</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>[{'id': 3303, 'date_created': '2021-02-10T19:23:46', 'date_created_gmt': '2021-02-10T03:23:46', 'date_modified': '2021-02-10T19:24:39', 'date_modified_gmt': '2021-02-10T03:24:39', 'src': 'https://www.thecsdesign.com/wp-content/uploads/2021/02/geometric-2.jpg', 'name': 'geometric-2', 'alt': '六角形幾何圖案陶瓷隔熱吸水杯墊'}, {'id': 3309, 'date_created': '2021-02-10T19:24:05', 'date_created_gmt': '2021-02-10T03:24:05', 'date_modified': '2021-02-10T19:24:24', 'date_modified_gmt': '2021-02-10T03:24:24', 'src': 'https://www.thecsdesign.com/wp-content/uploads/2021/02/geometric-B.jpg', 'name': 'geometric-B', 'alt': '六角形幾何圖案陶瓷隔熱吸水杯墊'}, {'id': 3302, 'date_created': '2021-02-10T19:23:42', 'date_created_gmt': '2021-02-10T03:23:42', 'date_modified': '2021-02-10T19:24:30', 'date_modified_gmt': '2021-02-10T03:24:30', 'src': 'https://www.thecsdesign.com/wp-content/uploads/2021/02/geometric-1.jpg', 'name': 'geometric-1', 'alt': '六角形幾何圖案陶瓷隔熱吸水杯墊'}, {'id': 3301, 'date_created': '2021-02-10T19:23:40', 'date_created_gmt': '2021-02-10T03:23:40', 'date_modified': '2021-02-10T19:24:32', 'date_modified_gmt': '2021-02-10T03:24:32', 'src': 'https://www.thecsdesign.com/wp-content/uploads/2021/02/geometric-6.jpg', 'name': 'geometric-6', 'alt': '六角形幾何圖案陶瓷隔熱吸水杯墊'}]</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">&lt;p&gt;六角形的結構是一種大自然法則及很高的穩定性，凡是圓筒形的物體，當受到壓力時它的截面都是六角形。陶瓷杯墊是絕佳的隔熱物料，配上彩色數碼打印，為生活添上一份色彩。無論家中、咖啡屋、朋友聚會都適合。讓彩色藝術溶入生活。&lt;/p&gt;
-&lt;p&gt;陶瓷杯墊以一種低溫陶瓷原料白雲士製造。經低溫燒製，表面蘊藏無數微小孔穴，具有極強的吸水性。&lt;/p&gt;
-&lt;p&gt;&lt;img class="alignnone size-full wp-image-3300" src="https://www.thecsdesign.com/wp-content/uploads/2021/02/info-geometric-zh-scaled.jpg" alt="六角形幾何圖案陶瓷隔熱吸水杯墊info" width="1097" height="2560" /&gt;&lt;/p&gt;
-</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>六角形幾何圖案陶瓷隔熱吸水杯墊A款</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>CS-GM-01</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>[{'id': 3304, 'date_created': '2021-02-10T19:23:48', 'date_created_gmt': '2021-02-10T03:23:48', 'date_modified': '2021-02-10T19:24:37', 'date_modified_gmt': '2021-02-10T03:24:37', 'src': 'https://www.thecsdesign.com/wp-content/uploads/2021/02/geometric-3.jpg', 'name': 'geometric-3', 'alt': '六角形幾何圖案陶瓷隔熱吸水杯墊'}, {'id': 3308, 'date_created': '2021-02-10T19:24:01', 'date_created_gmt': '2021-02-10T03:24:01', 'date_modified': '2021-02-10T19:24:26', 'date_modified_gmt': '2021-02-10T03:24:26', 'src': 'https://www.thecsdesign.com/wp-content/uploads/2021/02/geometric-A.jpg', 'name': 'geometric-A', 'alt': '六角形幾何圖案陶瓷隔熱吸水杯墊'}, {'id': 3302, 'date_created': '2021-02-10T19:23:42', 'date_created_gmt': '2021-02-10T03:23:42', 'date_modified': '2021-02-10T19:24:30', 'date_modified_gmt': '2021-02-10T03:24:30', 'src': 'https://www.thecsdesign.com/wp-content/uploads/2021/02/geometric-1.jpg', 'name': 'geometric-1', 'alt': '六角形幾何圖案陶瓷隔熱吸水杯墊'}, {'id': 3301, 'date_created': '2021-02-10T19:23:40', 'date_created_gmt': '2021-02-10T03:23:40', 'date_modified': '2021-02-10T19:24:32', 'date_modified_gmt': '2021-02-10T03:24:32', 'src': 'https://www.thecsdesign.com/wp-content/uploads/2021/02/geometric-6.jpg', 'name': 'geometric-6', 'alt': '六角形幾何圖案陶瓷隔熱吸水杯墊'}]</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">&lt;p&gt;杯墊是絕佳的隔熱物料，配上彩色數碼打印，為生活添上一份色彩。無論家中、咖啡屋、朋友聚會都適合。讓彩色藝術溶入生活。&lt;/p&gt;
-&lt;p&gt;陶瓷杯墊以一種低溫陶瓷原料白雲士製造。經低溫燒製，表面蘊藏無數微小孔穴，具有極強的吸水性。&lt;/p&gt;
-&lt;p&gt;&lt;img class="alignnone size-full wp-image-3295" src="https://www.thecsdesign.com/wp-content/uploads/2021/01/round-info-zh-scaled.jpg" alt="圓形油畫陶瓷吸水杯墊info" width="1280" height="2560" /&gt;&lt;/p&gt;
-</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>圓形彩色油畫陶瓷吸水杯墊D款</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>CS-OP-04</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>[{'id': 2142, 'date_created': '2021-01-21T11:08:34', 'date_created_gmt': '2021-01-21T03:08:34', 'date_modified': '2021-01-21T11:08:34', 'date_modified_gmt': '2021-01-21T03:08:34', 'src': 'https://www.thecsdesign.com/wp-content/uploads/2021/01/round-paint-5.jpg', 'name': 'round-paint-5.jpg', 'alt': ''}, {'id': 3291, 'date_created': '2021-02-10T19:06:51', 'date_created_gmt': '2021-02-10T03:06:51', 'date_modified': '2021-02-10T19:07:03', 'date_modified_gmt': '2021-02-10T03:07:03', 'src': 'https://www.thecsdesign.com/wp-content/uploads/2021/01/C-OPD.jpg', 'name': 'C-OPD', 'alt': '圓形油畫陶瓷吸水杯墊'}, {'id': 2139, 'date_created': '2021-01-21T11:08:32', 'date_created_gmt': '2021-01-21T03:08:32', 'date_modified': '2021-01-21T11:08:32', 'date_modified_gmt': '2021-01-21T03:08:32', 'src': 'https://www.thecsdesign.com/wp-content/uploads/2021/01/round-info-zh-3.jpg', 'name': 'round-info-zh-3.jpg', 'alt': ''}]</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">&lt;p&gt;杯墊是絕佳的隔熱物料，配上彩色數碼打印，為生活添上一份色彩。無論家中、咖啡屋、朋友聚會都適合。讓彩色藝術溶入生活。&lt;/p&gt;
-&lt;p&gt;陶瓷杯墊以一種低溫陶瓷原料白雲士製造。經低溫燒製，表面蘊藏無數微小孔穴，具有極強的吸水性。&lt;/p&gt;
-&lt;p&gt;&lt;img class="alignnone size-full wp-image-3295" src="https://www.thecsdesign.com/wp-content/uploads/2021/01/round-info-zh-scaled.jpg" alt="圓形油畫陶瓷吸水杯墊info" width="1280" height="2560" /&gt;&lt;/p&gt;
-</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>圓形彩色油畫陶瓷吸水杯墊C款</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>CS-OP-02</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>[{'id': 2140, 'date_created': '2021-01-21T11:08:33', 'date_created_gmt': '2021-01-21T03:08:33', 'date_modified': '2021-01-21T11:08:33', 'date_modified_gmt': '2021-01-21T03:08:33', 'src': 'https://www.thecsdesign.com/wp-content/uploads/2021/01/round-paint-3.jpg', 'name': 'round-paint-3.jpg', 'alt': ''}, {'id': 3293, 'date_created': '2021-02-10T19:06:57', 'date_created_gmt': '2021-02-10T03:06:57', 'date_modified': '2021-02-10T19:07:10', 'date_modified_gmt': '2021-02-10T03:07:10', 'src': 'https://www.thecsdesign.com/wp-content/uploads/2021/01/C-OPB.jpg', 'name': 'C-OPB', 'alt': '圓形油畫陶瓷吸水杯墊'}, {'id': 2139, 'date_created': '2021-01-21T11:08:32', 'date_created_gmt': '2021-01-21T03:08:32', 'date_modified': '2021-01-21T11:08:32', 'date_modified_gmt': '2021-01-21T03:08:32', 'src': 'https://www.thecsdesign.com/wp-content/uploads/2021/01/round-info-zh-3.jpg', 'name': 'round-info-zh-3.jpg', 'alt': ''}]</t>
-        </is>
+          <t>No route was found matching the URL and request method.</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>404</v>
       </c>
     </row>
   </sheetData>
